--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -534,7 +534,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H2">
         <v>0.224893</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>0.4423443406062222</v>
+        <v>0.1720421704636667</v>
       </c>
       <c r="R2">
-        <v>3.981099065456</v>
+        <v>1.548379534173</v>
       </c>
       <c r="S2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="T2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H3">
         <v>0.224893</v>
@@ -620,22 +620,22 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
-        <v>8.365398195652887</v>
+        <v>8.365398195652888</v>
       </c>
       <c r="R3">
         <v>75.28858376087599</v>
       </c>
       <c r="S3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="T3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07496433333333333</v>
+        <v>0.07496433333333334</v>
       </c>
       <c r="H4">
         <v>0.224893</v>
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
         <v>2.332330544537445</v>
@@ -694,10 +694,10 @@
         <v>20.990974900837</v>
       </c>
       <c r="S4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="T4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
     </row>
   </sheetData>
